--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW1.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW1.xlsx
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>1.4120758811576042</v>
+        <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>1.577011494212872</v>
+        <v>0.0</v>
       </c>
       <c r="D154" t="n">
-        <v>1.4132468939687663</v>
+        <v>0.0</v>
       </c>
       <c r="E154" t="n">
-        <v>1.3656933548112948</v>
+        <v>0.0</v>
       </c>
       <c r="F154" t="n">
-        <v>1.723804491522978</v>
+        <v>0.0</v>
       </c>
       <c r="G154" t="n">
-        <v>1.3775000006046993</v>
+        <v>0.0</v>
       </c>
       <c r="H154" t="n">
-        <v>1.5657005417743182</v>
+        <v>0.0</v>
       </c>
       <c r="I154" t="n">
-        <v>1.5498571427567034</v>
+        <v>0.0</v>
       </c>
       <c r="J154" t="n">
-        <v>1.572224230594969</v>
+        <v>0.0</v>
       </c>
       <c r="K154" t="n">
-        <v>1.5315690856619117</v>
+        <v>0.0</v>
       </c>
       <c r="L154" t="n">
-        <v>1.587004831502916</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>5.576972726418951</v>
+        <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>5.538304526836895</v>
+        <v>0.0</v>
       </c>
       <c r="D159" t="n">
-        <v>4.899518899976851</v>
+        <v>0.0</v>
       </c>
       <c r="E159" t="n">
-        <v>4.828744218673917</v>
+        <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>5.556568628308968</v>
+        <v>0.0</v>
       </c>
       <c r="G159" t="n">
-        <v>5.311264365484536</v>
+        <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>5.736438358362213</v>
+        <v>0.0</v>
       </c>
       <c r="I159" t="n">
-        <v>4.987654053024325</v>
+        <v>0.0</v>
       </c>
       <c r="J159" t="n">
-        <v>4.8133333333333335</v>
+        <v>0.0</v>
       </c>
       <c r="K159" t="n">
-        <v>5.9775465994817205</v>
+        <v>0.0</v>
       </c>
       <c r="L159" t="n">
-        <v>5.465168541492876</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>5.063714641426392</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>4.990078833971564</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>4.983846153133774</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>4.995812273297087</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>4.96</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>4.497604332876403</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.026053268570548</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>4.864448336567432</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>5.025695362897733</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>4.249244993450632</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>5.418541665233391</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>2.531857320713196</v>
+        <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>2.495039416985782</v>
+        <v>0.0</v>
       </c>
       <c r="D260" t="n">
-        <v>2.491923076566887</v>
+        <v>0.0</v>
       </c>
       <c r="E260" t="n">
-        <v>2.4979061366485436</v>
+        <v>0.0</v>
       </c>
       <c r="F260" t="n">
-        <v>2.48</v>
+        <v>0.0</v>
       </c>
       <c r="G260" t="n">
-        <v>2.2488021664382014</v>
+        <v>0.0</v>
       </c>
       <c r="H260" t="n">
-        <v>2.513026634285274</v>
+        <v>0.0</v>
       </c>
       <c r="I260" t="n">
-        <v>2.432224168283716</v>
+        <v>0.0</v>
       </c>
       <c r="J260" t="n">
-        <v>2.5128476814488665</v>
+        <v>0.0</v>
       </c>
       <c r="K260" t="n">
-        <v>2.124622496725316</v>
+        <v>0.0</v>
       </c>
       <c r="L260" t="n">
-        <v>2.7092708326166957</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>6.948048186898362</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>7.256449138601506</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>6.213304813446193</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>6.369286752452339</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>7.097619337926717</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>6.78261671695479</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>6.886289158748198</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>6.200647515751081</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>7.093333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>6.177588062781294</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>7.315544636475469</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -12225,37 +12225,37 @@
         <v>319.0</v>
       </c>
       <c r="B320" t="n">
-        <v>0.6040902385424818</v>
+        <v>0.0</v>
       </c>
       <c r="C320" t="n">
-        <v>0.5063992964089963</v>
+        <v>0.0</v>
       </c>
       <c r="D320" t="n">
-        <v>0.5844485219826892</v>
+        <v>0.0</v>
       </c>
       <c r="E320" t="n">
-        <v>0.54000378142981</v>
+        <v>0.0</v>
       </c>
       <c r="F320" t="n">
-        <v>0.5875604304427188</v>
+        <v>0.0</v>
       </c>
       <c r="G320" t="n">
-        <v>0.5678988940082843</v>
+        <v>0.0</v>
       </c>
       <c r="H320" t="n">
-        <v>0.6335818620295571</v>
+        <v>0.0</v>
       </c>
       <c r="I320" t="n">
-        <v>0.5796097176022466</v>
+        <v>0.0</v>
       </c>
       <c r="J320" t="n">
-        <v>0.5066666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="K320" t="n">
-        <v>0.5285411041375205</v>
+        <v>0.0</v>
       </c>
       <c r="L320" t="n">
-        <v>0.6098881987726458</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="321">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>5.6275209614923805</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>5.049154657193923</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>4.984288214543038</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>5.041610785910319</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>5.097554478765198</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>5.619489650530772</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>5.70445393891182</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>5.613736391621573</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>5.011833511328049</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>5.332744531819053</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>5.483588815601831</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -12567,37 +12567,37 @@
         <v>328.0</v>
       </c>
       <c r="B329" t="n">
-        <v>0.7060379405788021</v>
+        <v>0.0</v>
       </c>
       <c r="C329" t="n">
-        <v>0.788505747106436</v>
+        <v>0.0</v>
       </c>
       <c r="D329" t="n">
-        <v>0.7066234469843832</v>
+        <v>0.0</v>
       </c>
       <c r="E329" t="n">
-        <v>0.8458707043790369</v>
+        <v>0.0</v>
       </c>
       <c r="F329" t="n">
-        <v>0.7938511676194597</v>
+        <v>0.0</v>
       </c>
       <c r="G329" t="n">
-        <v>0.8772048193831719</v>
+        <v>0.0</v>
       </c>
       <c r="H329" t="n">
-        <v>0.7686992722493454</v>
+        <v>0.0</v>
       </c>
       <c r="I329" t="n">
-        <v>0.9192245161371968</v>
+        <v>0.0</v>
       </c>
       <c r="J329" t="n">
-        <v>0.8731818183784072</v>
+        <v>0.0</v>
       </c>
       <c r="K329" t="n">
-        <v>0.8726598922664667</v>
+        <v>0.0</v>
       </c>
       <c r="L329" t="n">
-        <v>0.7825094238453048</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>8.116204320367256</v>
+        <v>0.0</v>
       </c>
       <c r="C331" t="n">
-        <v>7.0303766277399795</v>
+        <v>0.0</v>
       </c>
       <c r="D331" t="n">
-        <v>7.575128202269051</v>
+        <v>0.0</v>
       </c>
       <c r="E331" t="n">
-        <v>7.820594056276359</v>
+        <v>0.0</v>
       </c>
       <c r="F331" t="n">
-        <v>7.339641497113251</v>
+        <v>0.0</v>
       </c>
       <c r="G331" t="n">
-        <v>8.110297189735642</v>
+        <v>0.0</v>
       </c>
       <c r="H331" t="n">
-        <v>7.107096780270265</v>
+        <v>0.0</v>
       </c>
       <c r="I331" t="n">
-        <v>8.498795087794784</v>
+        <v>0.0</v>
       </c>
       <c r="J331" t="n">
-        <v>8.073102075182819</v>
+        <v>0.0</v>
       </c>
       <c r="K331" t="n">
-        <v>8.068276547796982</v>
+        <v>0.0</v>
       </c>
       <c r="L331" t="n">
-        <v>7.2347801116925545</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="332">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.460820303718117</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.3592274678054559</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.4153846153235399</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.4072511753303495</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.40183101428097356</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.34610703027981443</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.35692916235336825</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.3417373316514636</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.41538588888407374</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.39377882900065386</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.3433780529671975</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>9.392796170810865</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>9.327670782041086</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8.25182130522417</v>
+        <v>0.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8.132621841977123</v>
+        <v>0.0</v>
       </c>
       <c r="F395" t="n">
-        <v>9.35843137399405</v>
+        <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8.945287352395008</v>
+        <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>9.661369866715306</v>
+        <v>0.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8.400259457725179</v>
+        <v>0.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8.106666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="K395" t="n">
-        <v>10.067446904390264</v>
+        <v>0.0</v>
       </c>
       <c r="L395" t="n">
-        <v>9.20449438567221</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>3.8158234443919135</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>3.789366255204191</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>3.3523024052473187</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>3.303877623303206</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>3.801862745685083</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>3.634022986910472</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>3.924931508353093</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>3.412605404700854</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>3.293333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>4.089900304908545</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>3.7393258441793353</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>22.246207695000805</v>
+        <v>0.0</v>
       </c>
       <c r="C429" t="n">
-        <v>22.95883293152923</v>
+        <v>0.0</v>
       </c>
       <c r="D429" t="n">
-        <v>20.30312722255762</v>
+        <v>0.0</v>
       </c>
       <c r="E429" t="n">
-        <v>23.016008110972944</v>
+        <v>0.0</v>
       </c>
       <c r="F429" t="n">
-        <v>19.78540475510872</v>
+        <v>0.0</v>
       </c>
       <c r="G429" t="n">
-        <v>22.791392723759106</v>
+        <v>0.0</v>
       </c>
       <c r="H429" t="n">
-        <v>23.21256038709809</v>
+        <v>0.0</v>
       </c>
       <c r="I429" t="n">
-        <v>23.278113653930795</v>
+        <v>0.0</v>
       </c>
       <c r="J429" t="n">
-        <v>22.157337955837814</v>
+        <v>0.0</v>
       </c>
       <c r="K429" t="n">
-        <v>23.215804244887686</v>
+        <v>0.0</v>
       </c>
       <c r="L429" t="n">
-        <v>19.58227204164221</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="430">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>8.155218220323505</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>6.836390501521451</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>7.890055046766305</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>7.290051049302435</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>7.932065810976704</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>7.666635069111839</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>8.553355137399022</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>7.824731187630329</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>6.84</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>7.135304905856529</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>8.233490683430718</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>1.6879048804754642</v>
+        <v>0.0</v>
       </c>
       <c r="C520" t="n">
-        <v>1.6633596113238547</v>
+        <v>0.0</v>
       </c>
       <c r="D520" t="n">
-        <v>1.6612820510445914</v>
+        <v>0.0</v>
       </c>
       <c r="E520" t="n">
-        <v>1.6652707577656956</v>
+        <v>0.0</v>
       </c>
       <c r="F520" t="n">
-        <v>1.6533333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="G520" t="n">
-        <v>1.4992014442921344</v>
+        <v>0.0</v>
       </c>
       <c r="H520" t="n">
-        <v>1.6753510895235162</v>
+        <v>0.0</v>
       </c>
       <c r="I520" t="n">
-        <v>1.6214827788558106</v>
+        <v>0.0</v>
       </c>
       <c r="J520" t="n">
-        <v>1.6752317876325775</v>
+        <v>0.0</v>
       </c>
       <c r="K520" t="n">
-        <v>1.4164149978168774</v>
+        <v>0.0</v>
       </c>
       <c r="L520" t="n">
-        <v>1.8061805550777972</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="521">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>0.6995313349270879</v>
+        <v>0.0</v>
       </c>
       <c r="C531" t="n">
-        <v>0.7765417169116432</v>
+        <v>0.0</v>
       </c>
       <c r="D531" t="n">
-        <v>0.8178313252247241</v>
+        <v>0.0</v>
       </c>
       <c r="E531" t="n">
-        <v>0.8509187048444541</v>
+        <v>0.0</v>
       </c>
       <c r="F531" t="n">
-        <v>0.76</v>
+        <v>0.0</v>
       </c>
       <c r="G531" t="n">
-        <v>0.6780549684624837</v>
+        <v>0.0</v>
       </c>
       <c r="H531" t="n">
-        <v>0.7807776426245464</v>
+        <v>0.0</v>
       </c>
       <c r="I531" t="n">
-        <v>0.7808536583999578</v>
+        <v>0.0</v>
       </c>
       <c r="J531" t="n">
-        <v>0.7709615387439962</v>
+        <v>0.0</v>
       </c>
       <c r="K531" t="n">
-        <v>0.7977405340214766</v>
+        <v>0.0</v>
       </c>
       <c r="L531" t="n">
-        <v>0.6693541664012563</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="532">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>2.7981253397083514</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>3.106166867646573</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>3.2713253008988965</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>3.4036748193778164</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>3.04</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>2.712219873849935</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>3.1231105704981856</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>3.123414633599831</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>3.083846154975985</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>3.1909621360859064</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>2.6774166656050253</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6.981356003979999</v>
+        <v>0.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6.234585597106903</v>
+        <v>0.0</v>
       </c>
       <c r="D608" t="n">
-        <v>7.058304527786779</v>
+        <v>0.0</v>
       </c>
       <c r="E608" t="n">
-        <v>7.56005294001734</v>
+        <v>0.0</v>
       </c>
       <c r="F608" t="n">
-        <v>8.225846026198065</v>
+        <v>0.0</v>
       </c>
       <c r="G608" t="n">
-        <v>7.950584516115982</v>
+        <v>0.0</v>
       </c>
       <c r="H608" t="n">
-        <v>8.870146068413803</v>
+        <v>0.0</v>
       </c>
       <c r="I608" t="n">
-        <v>8.114536046431454</v>
+        <v>0.0</v>
       </c>
       <c r="J608" t="n">
-        <v>7.093333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="K608" t="n">
-        <v>7.399575457925289</v>
+        <v>0.0</v>
       </c>
       <c r="L608" t="n">
-        <v>8.538434782817042</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="609">
